--- a/data/condominium_x_streets.xlsx
+++ b/data/condominium_x_streets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="141">
   <si>
     <t>condo_name</t>
   </si>
@@ -64,184 +64,178 @@
     <t>Morada da Aldeia</t>
   </si>
   <si>
+    <t>Alameda Guarani</t>
+  </si>
+  <si>
+    <t>Alameda Karajá</t>
+  </si>
+  <si>
+    <t>Alameda Mamoré</t>
+  </si>
+  <si>
+    <t>Alameda Terena</t>
+  </si>
+  <si>
+    <t>Alameda Xavante</t>
+  </si>
+  <si>
+    <t>Morada da Serra / Nuvens</t>
+  </si>
+  <si>
+    <t>Estrada Doutor Yojiro Takaoka</t>
+  </si>
+  <si>
+    <t>Morada das Estrelas</t>
+  </si>
+  <si>
+    <t>Alameda Altair</t>
+  </si>
+  <si>
+    <t>Alameda Antares</t>
+  </si>
+  <si>
+    <t>Alameda Jaguaruçu</t>
+  </si>
+  <si>
+    <t>Alameda Perseus</t>
+  </si>
+  <si>
+    <t>Alameda Procion</t>
+  </si>
+  <si>
+    <t>Alameda Riguel</t>
+  </si>
+  <si>
+    <t>Alameda Sírius</t>
+  </si>
+  <si>
+    <t>Alameda Vega</t>
+  </si>
+  <si>
+    <t>Calçada Rigel</t>
+  </si>
+  <si>
+    <t>Morada das Flores</t>
+  </si>
+  <si>
+    <t>Alameda das Acácias</t>
+  </si>
+  <si>
+    <t>Alameda das Anêmonas</t>
+  </si>
+  <si>
+    <t>Alameda das Azaléias</t>
+  </si>
+  <si>
+    <t>Alameda das Begônias</t>
+  </si>
+  <si>
+    <t>Alameda das Camélias</t>
+  </si>
+  <si>
+    <t>Alameda das Dracenas</t>
+  </si>
+  <si>
+    <t>Alameda das Dálias</t>
+  </si>
+  <si>
+    <t>Alameda das Hortências</t>
+  </si>
+  <si>
+    <t>Alameda das Magnólias</t>
+  </si>
+  <si>
+    <t>Alameda das Margaridas</t>
+  </si>
+  <si>
+    <t>Alameda das Rosas</t>
+  </si>
+  <si>
+    <t>Alameda das Roseiras</t>
+  </si>
+  <si>
+    <t>Alameda das Tulipas</t>
+  </si>
+  <si>
+    <t>Alameda das Violetas</t>
+  </si>
+  <si>
+    <t>Alameda dos Antúrios</t>
+  </si>
+  <si>
+    <t>Alameda dos Cravos</t>
+  </si>
+  <si>
+    <t>Alameda dos Crisântemos</t>
+  </si>
+  <si>
+    <t>Alameda dos Jasmins</t>
+  </si>
+  <si>
+    <t>Alameda dos Lírios</t>
+  </si>
+  <si>
+    <t>Alameda dos Manacás</t>
+  </si>
+  <si>
+    <t>Morada dos Lagos</t>
+  </si>
+  <si>
     <t>Alameda Arari</t>
   </si>
   <si>
-    <t>Alameda Catanduva</t>
-  </si>
-  <si>
-    <t>Alameda Guarani</t>
+    <t>Alameda Cajubá</t>
+  </si>
+  <si>
+    <t>Alameda Campelo</t>
+  </si>
+  <si>
+    <t>Alameda Caraceres</t>
+  </si>
+  <si>
+    <t>Alameda dos Esmoris</t>
+  </si>
+  <si>
+    <t>Alameda Dourada</t>
+  </si>
+  <si>
+    <t>Alameda Formosa</t>
+  </si>
+  <si>
+    <t>Alameda Garopaba</t>
+  </si>
+  <si>
+    <t>Alameda Jagape</t>
   </si>
   <si>
     <t>Alameda Jagapé</t>
   </si>
   <si>
-    <t>Alameda Karajá</t>
-  </si>
-  <si>
-    <t>Alameda Mamoré</t>
+    <t>Alameda Jaguaruna</t>
+  </si>
+  <si>
+    <t>Alameda Jari</t>
+  </si>
+  <si>
+    <t>Alameda Mandiore</t>
+  </si>
+  <si>
+    <t>Alameda Mangabeira</t>
+  </si>
+  <si>
+    <t>Alameda Panema</t>
+  </si>
+  <si>
+    <t>Alameda Piratuba</t>
+  </si>
+  <si>
+    <t>Alameda Salgueiros</t>
+  </si>
+  <si>
+    <t>Alameda Sapucaia</t>
   </si>
   <si>
     <t>Alameda Tafe</t>
-  </si>
-  <si>
-    <t>Alameda Terena</t>
-  </si>
-  <si>
-    <t>Alameda Xavante</t>
-  </si>
-  <si>
-    <t>Rua Xavantes</t>
-  </si>
-  <si>
-    <t>Morada da Serra / Nuvens</t>
-  </si>
-  <si>
-    <t>Estrada Doutor Yojiro Takaoka</t>
-  </si>
-  <si>
-    <t>Morada das Estrelas</t>
-  </si>
-  <si>
-    <t>Alameda Altair</t>
-  </si>
-  <si>
-    <t>Alameda Antares</t>
-  </si>
-  <si>
-    <t>Alameda Jaguaruçu</t>
-  </si>
-  <si>
-    <t>Alameda Perseus</t>
-  </si>
-  <si>
-    <t>Alameda Procion</t>
-  </si>
-  <si>
-    <t>Alameda Riguel</t>
-  </si>
-  <si>
-    <t>Alameda Sírius</t>
-  </si>
-  <si>
-    <t>Alameda Vega</t>
-  </si>
-  <si>
-    <t>Calçada Rigel</t>
-  </si>
-  <si>
-    <t>Morada das Flores</t>
-  </si>
-  <si>
-    <t>Alameda das Acácias</t>
-  </si>
-  <si>
-    <t>Alameda das Anêmonas</t>
-  </si>
-  <si>
-    <t>Alameda das Azaléias</t>
-  </si>
-  <si>
-    <t>Alameda das Begônias</t>
-  </si>
-  <si>
-    <t>Alameda das Camélias</t>
-  </si>
-  <si>
-    <t>Alameda das Dracenas</t>
-  </si>
-  <si>
-    <t>Alameda das Dálias</t>
-  </si>
-  <si>
-    <t>Alameda das Hortências</t>
-  </si>
-  <si>
-    <t>Alameda das Magnólias</t>
-  </si>
-  <si>
-    <t>Alameda das Margaridas</t>
-  </si>
-  <si>
-    <t>Alameda das Rosas</t>
-  </si>
-  <si>
-    <t>Alameda das Roseiras</t>
-  </si>
-  <si>
-    <t>Alameda das Tulipas</t>
-  </si>
-  <si>
-    <t>Alameda das Violetas</t>
-  </si>
-  <si>
-    <t>Alameda dos Antúrios</t>
-  </si>
-  <si>
-    <t>Alameda dos Cravos</t>
-  </si>
-  <si>
-    <t>Alameda dos Crisântemos</t>
-  </si>
-  <si>
-    <t>Alameda dos Jasmins</t>
-  </si>
-  <si>
-    <t>Alameda dos Lírios</t>
-  </si>
-  <si>
-    <t>Alameda dos Manacás</t>
-  </si>
-  <si>
-    <t>Morada dos Lagos</t>
-  </si>
-  <si>
-    <t>Alameda Cajubá</t>
-  </si>
-  <si>
-    <t>Alameda Campelo</t>
-  </si>
-  <si>
-    <t>Alameda Caraceres</t>
-  </si>
-  <si>
-    <t>Alameda dos Esmoris</t>
-  </si>
-  <si>
-    <t>Alameda Dourada</t>
-  </si>
-  <si>
-    <t>Alameda Formosa</t>
-  </si>
-  <si>
-    <t>Alameda Garopaba</t>
-  </si>
-  <si>
-    <t>Alameda Jagape</t>
-  </si>
-  <si>
-    <t>Alameda Jaguaruna</t>
-  </si>
-  <si>
-    <t>Alameda Jari</t>
-  </si>
-  <si>
-    <t>Alameda Mandiore</t>
-  </si>
-  <si>
-    <t>Alameda Mangabeira</t>
-  </si>
-  <si>
-    <t>Alameda Panema</t>
-  </si>
-  <si>
-    <t>Alameda Piratuba</t>
-  </si>
-  <si>
-    <t>Alameda Salgueiros</t>
-  </si>
-  <si>
-    <t>Alameda Sapucaia</t>
   </si>
   <si>
     <t>Alameda Xarais</t>
@@ -450,10 +444,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -487,9 +481,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,8 +518,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,30 +573,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,23 +587,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,28 +601,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -616,10 +610,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -632,6 +626,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -644,19 +716,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,67 +758,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,79 +806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,22 +824,25 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,11 +862,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,15 +903,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -926,142 +920,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1071,16 +1065,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1403,10 +1402,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E444"/>
+  <dimension ref="A1:E442"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1439,7 +1438,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -1448,7 +1447,7 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
@@ -1457,7 +1456,7 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
@@ -1466,7 +1465,7 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -1475,7 +1474,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
@@ -1484,7 +1483,7 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
@@ -1493,7 +1492,7 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
@@ -1502,7 +1501,7 @@
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
@@ -1511,7 +1510,7 @@
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
@@ -1520,1605 +1519,1587 @@
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="4"/>
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="4"/>
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="4"/>
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="4"/>
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="4"/>
+      <c r="A29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="4"/>
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="4"/>
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="4"/>
+      <c r="A32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="A35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="A36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="A37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="A38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="A40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="A42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="A43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="A44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="A45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="A46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="4"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="A47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="4"/>
+      <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" s="4"/>
+      <c r="A49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="4"/>
+      <c r="A50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" s="4"/>
+      <c r="A51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="4"/>
+      <c r="A52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="A53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="4"/>
+      <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="A54" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E54" s="4"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="A55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E55" s="4"/>
+      <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="A56" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E56" s="4"/>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="4"/>
+      <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="A58" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E58" s="4"/>
+      <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="A59" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E59" s="4"/>
+      <c r="E59" s="6"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E60" s="4"/>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="A61" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="4"/>
+      <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="A62" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="4"/>
+      <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="A63" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="4"/>
+      <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="A64" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E64" s="4"/>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E65" s="4"/>
+      <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E66" s="4"/>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="3" t="s">
-        <v>59</v>
+      <c r="A67" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E67" s="4"/>
+      <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E68" s="4"/>
+      <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="1" t="s">
+      <c r="A69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E69" s="4"/>
+      <c r="E69" s="6"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E70" s="4"/>
+      <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E71" s="4"/>
+      <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E72" s="4"/>
+      <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="1" t="s">
-        <v>59</v>
+      <c r="A73" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E73" s="4"/>
+      <c r="E73" s="6"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B74" s="2" t="s">
+      <c r="A74" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E74" s="4"/>
+      <c r="B74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E75" s="4"/>
+      <c r="A75" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" s="6"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="3" t="s">
-        <v>83</v>
+      <c r="A76" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E76" s="4"/>
+      <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E77" s="4"/>
+      <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E78" s="4"/>
+      <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E79" s="4"/>
+      <c r="E79" s="6"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E80" s="4"/>
+      <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E81" s="4"/>
+      <c r="E81" s="6"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E82" s="4"/>
+      <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E83" s="4"/>
+      <c r="E83" s="6"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E84" s="4"/>
+      <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E85" s="4"/>
+      <c r="E85" s="6"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E86" s="4"/>
+      <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E87" s="4"/>
+      <c r="E87" s="6"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E88" s="4"/>
+      <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E89" s="4"/>
+      <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E90" s="4"/>
+      <c r="E90" s="6"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E91" s="4"/>
+      <c r="E91" s="6"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E92" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E93" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E93" s="6"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E94" s="4"/>
+      <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E95" s="4"/>
+      <c r="E95" s="6"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E96" s="4"/>
+      <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E97" s="4"/>
+      <c r="E97" s="6"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E98" s="4"/>
+      <c r="E98" s="6"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E99" s="4"/>
+      <c r="E99" s="6"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E100" s="4"/>
+      <c r="E100" s="6"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E101" s="4"/>
+      <c r="E101" s="6"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E102" s="4"/>
+      <c r="E102" s="6"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E103" s="4"/>
+      <c r="E103" s="6"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E104" s="4"/>
+      <c r="E104" s="6"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E105" s="4"/>
+      <c r="E105" s="6"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B106" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E106" s="4"/>
+      <c r="E106" s="6"/>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E107" s="4"/>
+      <c r="E107" s="6"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B108" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E108" s="4"/>
+      <c r="E108" s="6"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B109" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E109" s="4"/>
+      <c r="E109" s="6"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B110" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E110" s="4"/>
+      <c r="E110" s="6"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B111" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E111" s="4"/>
+      <c r="E111" s="6"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E112" s="4"/>
+      <c r="E112" s="6"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B113" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E113" s="4"/>
+      <c r="E113" s="6"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B114" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E114" s="4"/>
+      <c r="E114" s="6"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E115" s="4"/>
+      <c r="E115" s="6"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E116" s="4"/>
+      <c r="E116" s="6"/>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B117" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E117" s="4"/>
+      <c r="E117" s="6"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E118" s="4"/>
+      <c r="E118" s="6"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E119" s="4"/>
+      <c r="E119" s="6"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B120" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E120" s="4"/>
+      <c r="E120" s="6"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B121" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E121" s="4"/>
+      <c r="E121" s="6"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E122" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="E122" s="6"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" spans="1:5">
+        <v>134</v>
+      </c>
+      <c r="E123" s="6"/>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" spans="1:5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B128" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>142</v>
-      </c>
+    <row r="307" spans="1:2">
+      <c r="A307" s="10"/>
+      <c r="B307" s="10"/>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="10"/>
+      <c r="B308" s="10"/>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="7"/>
-      <c r="B309" s="7"/>
+      <c r="A309" s="10"/>
+      <c r="B309" s="10"/>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="7"/>
-      <c r="B310" s="7"/>
+      <c r="A310" s="10"/>
+      <c r="B310" s="10"/>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="7"/>
-      <c r="B311" s="7"/>
+      <c r="A311" s="10"/>
+      <c r="B311" s="10"/>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="7"/>
-      <c r="B312" s="7"/>
+      <c r="A312" s="10"/>
+      <c r="B312" s="10"/>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="7"/>
-      <c r="B313" s="7"/>
+      <c r="A313" s="10"/>
+      <c r="B313" s="10"/>
     </row>
     <row r="314" spans="1:2">
-      <c r="A314" s="7"/>
-      <c r="B314" s="7"/>
+      <c r="A314" s="10"/>
+      <c r="B314" s="10"/>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="7"/>
-      <c r="B315" s="7"/>
+      <c r="A315" s="10"/>
+      <c r="B315" s="10"/>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="7"/>
-      <c r="B316" s="7"/>
+      <c r="A316" s="10"/>
+      <c r="B316" s="10"/>
     </row>
     <row r="317" spans="1:2">
-      <c r="A317" s="7"/>
-      <c r="B317" s="7"/>
+      <c r="A317" s="10"/>
+      <c r="B317" s="10"/>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="7"/>
-      <c r="B318" s="7"/>
+      <c r="A318" s="10"/>
+      <c r="B318" s="10"/>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="7"/>
-      <c r="B319" s="7"/>
+      <c r="A319" s="10"/>
+      <c r="B319" s="10"/>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="7"/>
-      <c r="B320" s="7"/>
+      <c r="A320" s="10"/>
+      <c r="B320" s="10"/>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="7"/>
-      <c r="B321" s="7"/>
+      <c r="A321" s="10"/>
+      <c r="B321" s="10"/>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="7"/>
-      <c r="B322" s="7"/>
+      <c r="A322" s="10"/>
+      <c r="B322" s="10"/>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="7"/>
-      <c r="B323" s="7"/>
+      <c r="A323" s="10"/>
+      <c r="B323" s="10"/>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="7"/>
-      <c r="B324" s="7"/>
+      <c r="A324" s="10"/>
+      <c r="B324" s="10"/>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="7"/>
-      <c r="B325" s="7"/>
+      <c r="A325" s="10"/>
+      <c r="B325" s="10"/>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="7"/>
-      <c r="B326" s="7"/>
+      <c r="A326" s="10"/>
+      <c r="B326" s="10"/>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="7"/>
-      <c r="B327" s="7"/>
+      <c r="A327" s="10"/>
+      <c r="B327" s="10"/>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" s="7"/>
-      <c r="B328" s="7"/>
+      <c r="A328" s="10"/>
+      <c r="B328" s="10"/>
     </row>
     <row r="329" spans="1:2">
-      <c r="A329" s="7"/>
-      <c r="B329" s="7"/>
+      <c r="A329" s="10"/>
+      <c r="B329" s="10"/>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="7"/>
-      <c r="B330" s="7"/>
+      <c r="A330" s="10"/>
+      <c r="B330" s="10"/>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="7"/>
-      <c r="B331" s="7"/>
+      <c r="A331" s="10"/>
+      <c r="B331" s="10"/>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="7"/>
-      <c r="B332" s="7"/>
+      <c r="A332" s="10"/>
+      <c r="B332" s="10"/>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="7"/>
-      <c r="B333" s="7"/>
+      <c r="A333" s="10"/>
+      <c r="B333" s="10"/>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="7"/>
-      <c r="B334" s="7"/>
+      <c r="A334" s="10"/>
+      <c r="B334" s="10"/>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="7"/>
-      <c r="B335" s="7"/>
+      <c r="A335" s="10"/>
+      <c r="B335" s="10"/>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="7"/>
-      <c r="B336" s="7"/>
+      <c r="A336" s="10"/>
+      <c r="B336" s="10"/>
     </row>
     <row r="337" spans="1:2">
-      <c r="A337" s="7"/>
-      <c r="B337" s="7"/>
+      <c r="A337" s="10"/>
+      <c r="B337" s="10"/>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="7"/>
-      <c r="B338" s="7"/>
+      <c r="A338" s="10"/>
+      <c r="B338" s="10"/>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="7"/>
-      <c r="B339" s="7"/>
+      <c r="A339" s="10"/>
+      <c r="B339" s="10"/>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="7"/>
-      <c r="B340" s="7"/>
+      <c r="A340" s="10"/>
+      <c r="B340" s="10"/>
     </row>
     <row r="341" spans="1:2">
-      <c r="A341" s="7"/>
-      <c r="B341" s="7"/>
+      <c r="A341" s="10"/>
+      <c r="B341" s="10"/>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="7"/>
-      <c r="B342" s="7"/>
+      <c r="A342" s="10"/>
+      <c r="B342" s="10"/>
     </row>
     <row r="343" spans="1:2">
-      <c r="A343" s="7"/>
-      <c r="B343" s="7"/>
+      <c r="A343" s="10"/>
+      <c r="B343" s="10"/>
     </row>
     <row r="344" spans="1:2">
-      <c r="A344" s="7"/>
-      <c r="B344" s="7"/>
+      <c r="A344" s="10"/>
+      <c r="B344" s="10"/>
     </row>
     <row r="345" spans="1:2">
-      <c r="A345" s="7"/>
-      <c r="B345" s="7"/>
+      <c r="A345" s="10"/>
+      <c r="B345" s="10"/>
     </row>
     <row r="346" spans="1:2">
-      <c r="A346" s="7"/>
-      <c r="B346" s="7"/>
+      <c r="A346" s="10"/>
+      <c r="B346" s="10"/>
     </row>
     <row r="347" spans="1:2">
-      <c r="A347" s="7"/>
-      <c r="B347" s="7"/>
+      <c r="A347" s="10"/>
+      <c r="B347" s="10"/>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="7"/>
-      <c r="B348" s="7"/>
+      <c r="A348" s="10"/>
+      <c r="B348" s="10"/>
     </row>
     <row r="349" spans="1:2">
-      <c r="A349" s="7"/>
-      <c r="B349" s="7"/>
+      <c r="A349" s="10"/>
+      <c r="B349" s="10"/>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="7"/>
-      <c r="B350" s="7"/>
+      <c r="A350" s="10"/>
+      <c r="B350" s="10"/>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="7"/>
-      <c r="B351" s="7"/>
+      <c r="A351" s="10"/>
+      <c r="B351" s="10"/>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="7"/>
-      <c r="B352" s="7"/>
+      <c r="A352" s="10"/>
+      <c r="B352" s="10"/>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="7"/>
-      <c r="B353" s="7"/>
+      <c r="A353" s="10"/>
+      <c r="B353" s="10"/>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="7"/>
-      <c r="B354" s="7"/>
+      <c r="A354" s="10"/>
+      <c r="B354" s="10"/>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="7"/>
-      <c r="B355" s="7"/>
+      <c r="A355" s="10"/>
+      <c r="B355" s="10"/>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="7"/>
-      <c r="B356" s="7"/>
+      <c r="A356" s="10"/>
+      <c r="B356" s="10"/>
     </row>
     <row r="357" spans="1:2">
-      <c r="A357" s="7"/>
-      <c r="B357" s="7"/>
+      <c r="A357" s="10"/>
+      <c r="B357" s="10"/>
     </row>
     <row r="358" spans="1:2">
-      <c r="A358" s="7"/>
-      <c r="B358" s="7"/>
+      <c r="A358" s="10"/>
+      <c r="B358" s="10"/>
     </row>
     <row r="359" spans="1:2">
-      <c r="A359" s="7"/>
-      <c r="B359" s="7"/>
+      <c r="A359" s="10"/>
+      <c r="B359" s="10"/>
     </row>
     <row r="360" spans="1:2">
-      <c r="A360" s="7"/>
-      <c r="B360" s="7"/>
+      <c r="A360" s="10"/>
+      <c r="B360" s="10"/>
     </row>
     <row r="361" spans="1:2">
-      <c r="A361" s="7"/>
-      <c r="B361" s="7"/>
+      <c r="A361" s="10"/>
+      <c r="B361" s="10"/>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="7"/>
-      <c r="B362" s="7"/>
+      <c r="A362" s="10"/>
+      <c r="B362" s="10"/>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="7"/>
-      <c r="B363" s="7"/>
+      <c r="A363" s="10"/>
+      <c r="B363" s="10"/>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="7"/>
-      <c r="B364" s="7"/>
+      <c r="A364" s="10"/>
+      <c r="B364" s="10"/>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="7"/>
-      <c r="B365" s="7"/>
+      <c r="A365" s="10"/>
+      <c r="B365" s="10"/>
     </row>
     <row r="366" spans="1:2">
-      <c r="A366" s="7"/>
-      <c r="B366" s="7"/>
+      <c r="A366" s="10"/>
+      <c r="B366" s="10"/>
     </row>
     <row r="367" spans="1:2">
-      <c r="A367" s="7"/>
-      <c r="B367" s="7"/>
+      <c r="A367" s="10"/>
+      <c r="B367" s="10"/>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="7"/>
-      <c r="B368" s="7"/>
+      <c r="A368" s="10"/>
+      <c r="B368" s="10"/>
     </row>
     <row r="369" spans="1:2">
-      <c r="A369" s="7"/>
-      <c r="B369" s="7"/>
+      <c r="A369" s="10"/>
+      <c r="B369" s="10"/>
     </row>
     <row r="370" spans="1:2">
-      <c r="A370" s="7"/>
-      <c r="B370" s="7"/>
+      <c r="A370" s="10"/>
+      <c r="B370" s="10"/>
     </row>
     <row r="371" spans="1:2">
-      <c r="A371" s="7"/>
-      <c r="B371" s="7"/>
+      <c r="A371" s="10"/>
+      <c r="B371" s="10"/>
     </row>
     <row r="372" spans="1:2">
-      <c r="A372" s="7"/>
-      <c r="B372" s="7"/>
+      <c r="A372" s="10"/>
+      <c r="B372" s="10"/>
     </row>
     <row r="373" spans="1:2">
-      <c r="A373" s="7"/>
-      <c r="B373" s="7"/>
+      <c r="A373" s="10"/>
+      <c r="B373" s="10"/>
     </row>
     <row r="374" spans="1:2">
-      <c r="A374" s="7"/>
-      <c r="B374" s="7"/>
+      <c r="A374" s="10"/>
+      <c r="B374" s="10"/>
     </row>
     <row r="375" spans="1:2">
-      <c r="A375" s="7"/>
-      <c r="B375" s="7"/>
+      <c r="A375" s="10"/>
+      <c r="B375" s="10"/>
     </row>
     <row r="376" spans="1:2">
-      <c r="A376" s="7"/>
-      <c r="B376" s="7"/>
+      <c r="A376" s="10"/>
+      <c r="B376" s="10"/>
     </row>
     <row r="377" spans="1:2">
-      <c r="A377" s="7"/>
-      <c r="B377" s="7"/>
+      <c r="A377" s="10"/>
+      <c r="B377" s="10"/>
     </row>
     <row r="378" spans="1:2">
-      <c r="A378" s="7"/>
-      <c r="B378" s="7"/>
+      <c r="A378" s="10"/>
+      <c r="B378" s="10"/>
     </row>
     <row r="379" spans="1:2">
-      <c r="A379" s="7"/>
-      <c r="B379" s="7"/>
+      <c r="A379" s="10"/>
+      <c r="B379" s="10"/>
     </row>
     <row r="380" spans="1:2">
-      <c r="A380" s="7"/>
-      <c r="B380" s="7"/>
+      <c r="A380" s="10"/>
+      <c r="B380" s="10"/>
     </row>
     <row r="381" spans="1:2">
-      <c r="A381" s="7"/>
-      <c r="B381" s="7"/>
+      <c r="A381" s="10"/>
+      <c r="B381" s="10"/>
     </row>
     <row r="382" spans="1:2">
-      <c r="A382" s="7"/>
-      <c r="B382" s="7"/>
+      <c r="A382" s="10"/>
+      <c r="B382" s="10"/>
     </row>
     <row r="383" spans="1:2">
-      <c r="A383" s="7"/>
-      <c r="B383" s="7"/>
+      <c r="A383" s="10"/>
+      <c r="B383" s="10"/>
     </row>
     <row r="384" spans="1:2">
-      <c r="A384" s="7"/>
-      <c r="B384" s="7"/>
+      <c r="A384" s="10"/>
+      <c r="B384" s="10"/>
     </row>
     <row r="385" spans="1:2">
-      <c r="A385" s="7"/>
-      <c r="B385" s="7"/>
+      <c r="A385" s="10"/>
+      <c r="B385" s="10"/>
     </row>
     <row r="386" spans="1:2">
-      <c r="A386" s="7"/>
-      <c r="B386" s="7"/>
+      <c r="A386" s="10"/>
+      <c r="B386" s="10"/>
     </row>
     <row r="387" spans="1:2">
-      <c r="A387" s="7"/>
-      <c r="B387" s="7"/>
+      <c r="A387" s="10"/>
+      <c r="B387" s="10"/>
     </row>
     <row r="388" spans="1:2">
-      <c r="A388" s="7"/>
-      <c r="B388" s="7"/>
+      <c r="A388" s="10"/>
+      <c r="B388" s="10"/>
     </row>
     <row r="389" spans="1:2">
-      <c r="A389" s="7"/>
-      <c r="B389" s="7"/>
+      <c r="A389" s="10"/>
+      <c r="B389" s="10"/>
     </row>
     <row r="390" spans="1:2">
-      <c r="A390" s="7"/>
-      <c r="B390" s="7"/>
+      <c r="A390" s="10"/>
+      <c r="B390" s="10"/>
     </row>
     <row r="391" spans="1:2">
-      <c r="A391" s="7"/>
-      <c r="B391" s="7"/>
+      <c r="A391" s="10"/>
+      <c r="B391" s="10"/>
     </row>
     <row r="392" spans="1:2">
-      <c r="A392" s="7"/>
-      <c r="B392" s="7"/>
+      <c r="A392" s="10"/>
+      <c r="B392" s="10"/>
     </row>
     <row r="393" spans="1:2">
-      <c r="A393" s="7"/>
-      <c r="B393" s="7"/>
+      <c r="A393" s="10"/>
+      <c r="B393" s="10"/>
     </row>
     <row r="394" spans="1:2">
-      <c r="A394" s="7"/>
-      <c r="B394" s="7"/>
+      <c r="A394" s="10"/>
+      <c r="B394" s="10"/>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="7"/>
-      <c r="B395" s="7"/>
+      <c r="A395" s="10"/>
+      <c r="B395" s="10"/>
     </row>
     <row r="396" spans="1:2">
-      <c r="A396" s="7"/>
-      <c r="B396" s="7"/>
+      <c r="A396" s="10"/>
+      <c r="B396" s="10"/>
     </row>
     <row r="397" spans="1:2">
-      <c r="A397" s="7"/>
-      <c r="B397" s="7"/>
+      <c r="A397" s="10"/>
+      <c r="B397" s="10"/>
     </row>
     <row r="398" spans="1:2">
-      <c r="A398" s="7"/>
-      <c r="B398" s="7"/>
+      <c r="A398" s="10"/>
+      <c r="B398" s="10"/>
     </row>
     <row r="399" spans="1:2">
-      <c r="A399" s="7"/>
-      <c r="B399" s="7"/>
+      <c r="A399" s="10"/>
+      <c r="B399" s="10"/>
     </row>
     <row r="400" spans="1:2">
-      <c r="A400" s="7"/>
-      <c r="B400" s="7"/>
+      <c r="A400" s="10"/>
+      <c r="B400" s="10"/>
     </row>
     <row r="401" spans="1:2">
-      <c r="A401" s="7"/>
-      <c r="B401" s="7"/>
+      <c r="A401" s="10"/>
+      <c r="B401" s="10"/>
     </row>
     <row r="402" spans="1:2">
-      <c r="A402" s="7"/>
-      <c r="B402" s="7"/>
+      <c r="A402" s="10"/>
+      <c r="B402" s="10"/>
     </row>
     <row r="403" spans="1:2">
-      <c r="A403" s="7"/>
-      <c r="B403" s="7"/>
+      <c r="A403" s="10"/>
+      <c r="B403" s="10"/>
     </row>
     <row r="404" spans="1:2">
-      <c r="A404" s="7"/>
-      <c r="B404" s="7"/>
+      <c r="A404" s="10"/>
+      <c r="B404" s="10"/>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="7"/>
-      <c r="B405" s="7"/>
+      <c r="A405" s="10"/>
+      <c r="B405" s="10"/>
     </row>
     <row r="406" spans="1:2">
-      <c r="A406" s="7"/>
-      <c r="B406" s="7"/>
+      <c r="A406" s="10"/>
+      <c r="B406" s="10"/>
     </row>
     <row r="407" spans="1:2">
-      <c r="A407" s="7"/>
-      <c r="B407" s="7"/>
+      <c r="A407" s="10"/>
+      <c r="B407" s="10"/>
     </row>
     <row r="408" spans="1:2">
-      <c r="A408" s="7"/>
-      <c r="B408" s="7"/>
+      <c r="A408" s="10"/>
+      <c r="B408" s="10"/>
     </row>
     <row r="409" spans="1:2">
-      <c r="A409" s="7"/>
-      <c r="B409" s="7"/>
+      <c r="A409" s="10"/>
+      <c r="B409" s="10"/>
     </row>
     <row r="410" spans="1:2">
-      <c r="A410" s="7"/>
-      <c r="B410" s="7"/>
+      <c r="A410" s="10"/>
+      <c r="B410" s="10"/>
     </row>
     <row r="411" spans="1:2">
-      <c r="A411" s="7"/>
-      <c r="B411" s="7"/>
+      <c r="A411" s="10"/>
+      <c r="B411" s="10"/>
     </row>
     <row r="412" spans="1:2">
-      <c r="A412" s="7"/>
-      <c r="B412" s="7"/>
+      <c r="A412" s="10"/>
+      <c r="B412" s="10"/>
     </row>
     <row r="413" spans="1:2">
-      <c r="A413" s="7"/>
-      <c r="B413" s="7"/>
+      <c r="A413" s="10"/>
+      <c r="B413" s="10"/>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="7"/>
-      <c r="B414" s="7"/>
+      <c r="A414" s="10"/>
+      <c r="B414" s="10"/>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="7"/>
-      <c r="B415" s="7"/>
+      <c r="A415" s="10"/>
+      <c r="B415" s="10"/>
     </row>
     <row r="416" spans="1:2">
-      <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
+      <c r="A416" s="10"/>
+      <c r="B416" s="10"/>
     </row>
     <row r="417" spans="1:2">
-      <c r="A417" s="7"/>
-      <c r="B417" s="7"/>
+      <c r="A417" s="10"/>
+      <c r="B417" s="10"/>
     </row>
     <row r="418" spans="1:2">
-      <c r="A418" s="7"/>
-      <c r="B418" s="7"/>
+      <c r="A418" s="10"/>
+      <c r="B418" s="10"/>
     </row>
     <row r="419" spans="1:2">
-      <c r="A419" s="7"/>
-      <c r="B419" s="7"/>
+      <c r="A419" s="10"/>
+      <c r="B419" s="10"/>
     </row>
     <row r="420" spans="1:2">
-      <c r="A420" s="7"/>
-      <c r="B420" s="7"/>
+      <c r="A420" s="10"/>
+      <c r="B420" s="10"/>
     </row>
     <row r="421" spans="1:2">
-      <c r="A421" s="7"/>
-      <c r="B421" s="7"/>
+      <c r="A421" s="10"/>
+      <c r="B421" s="10"/>
     </row>
     <row r="422" spans="1:2">
-      <c r="A422" s="7"/>
-      <c r="B422" s="7"/>
+      <c r="A422" s="10"/>
+      <c r="B422" s="10"/>
     </row>
     <row r="423" spans="1:2">
-      <c r="A423" s="7"/>
-      <c r="B423" s="7"/>
+      <c r="A423" s="10"/>
+      <c r="B423" s="10"/>
     </row>
     <row r="424" spans="1:2">
-      <c r="A424" s="7"/>
-      <c r="B424" s="7"/>
+      <c r="A424" s="10"/>
+      <c r="B424" s="10"/>
     </row>
     <row r="425" spans="1:2">
-      <c r="A425" s="7"/>
-      <c r="B425" s="7"/>
+      <c r="A425" s="10"/>
+      <c r="B425" s="10"/>
     </row>
     <row r="426" spans="1:2">
-      <c r="A426" s="7"/>
-      <c r="B426" s="7"/>
+      <c r="A426" s="10"/>
+      <c r="B426" s="10"/>
     </row>
     <row r="427" spans="1:2">
-      <c r="A427" s="7"/>
-      <c r="B427" s="7"/>
+      <c r="A427" s="10"/>
+      <c r="B427" s="10"/>
     </row>
     <row r="428" spans="1:2">
-      <c r="A428" s="7"/>
-      <c r="B428" s="7"/>
+      <c r="A428" s="10"/>
+      <c r="B428" s="10"/>
     </row>
     <row r="429" spans="1:2">
-      <c r="A429" s="7"/>
-      <c r="B429" s="7"/>
+      <c r="A429" s="10"/>
+      <c r="B429" s="10"/>
     </row>
     <row r="430" spans="1:2">
-      <c r="A430" s="7"/>
-      <c r="B430" s="7"/>
+      <c r="A430" s="10"/>
+      <c r="B430" s="10"/>
     </row>
     <row r="431" spans="1:2">
-      <c r="A431" s="7"/>
-      <c r="B431" s="7"/>
+      <c r="A431" s="10"/>
+      <c r="B431" s="10"/>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="7"/>
-      <c r="B432" s="7"/>
+      <c r="A432" s="10"/>
+      <c r="B432" s="10"/>
     </row>
     <row r="433" spans="1:2">
-      <c r="A433" s="7"/>
-      <c r="B433" s="7"/>
+      <c r="A433" s="10"/>
+      <c r="B433" s="10"/>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="7"/>
-      <c r="B434" s="7"/>
+      <c r="A434" s="10"/>
+      <c r="B434" s="10"/>
     </row>
     <row r="435" spans="1:2">
-      <c r="A435" s="7"/>
-      <c r="B435" s="7"/>
+      <c r="A435" s="10"/>
+      <c r="B435" s="10"/>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="7"/>
-      <c r="B436" s="7"/>
+      <c r="A436" s="10"/>
+      <c r="B436" s="10"/>
     </row>
     <row r="437" spans="1:2">
-      <c r="A437" s="7"/>
-      <c r="B437" s="7"/>
+      <c r="A437" s="10"/>
+      <c r="B437" s="10"/>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="7"/>
-      <c r="B438" s="7"/>
+      <c r="A438" s="10"/>
+      <c r="B438" s="10"/>
     </row>
     <row r="439" spans="1:2">
-      <c r="A439" s="7"/>
-      <c r="B439" s="7"/>
+      <c r="A439" s="10"/>
+      <c r="B439" s="10"/>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="7"/>
-      <c r="B440" s="7"/>
+      <c r="A440" s="10"/>
+      <c r="B440" s="10"/>
     </row>
     <row r="441" spans="1:2">
-      <c r="A441" s="7"/>
-      <c r="B441" s="7"/>
+      <c r="A441" s="10"/>
+      <c r="B441" s="10"/>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="7"/>
-      <c r="B442" s="7"/>
-    </row>
-    <row r="443" spans="1:2">
-      <c r="A443" s="7"/>
-      <c r="B443" s="7"/>
-    </row>
-    <row r="444" spans="1:2">
-      <c r="A444" s="7"/>
-      <c r="B444" s="7"/>
+      <c r="A442" s="10"/>
+      <c r="B442" s="10"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B129">
-    <sortCondition ref="A2:A129"/>
-    <sortCondition ref="B2:B129"/>
+  <sortState ref="A2:B127">
+    <sortCondition ref="A2:A127"/>
+    <sortCondition ref="B2:B127"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
